--- a/CSV Files/Goldstandards/AD/Goldstandards.xlsx
+++ b/CSV Files/Goldstandards/AD/Goldstandards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USERS-Load\PycharmProjects\pythonProject\CVS Files\01.08.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USERS-Load\PycharmProjects\pythonProject\CSV Files\Goldstandards\AD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3C714A-7F4C-4BAD-B25D-64C694292972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43D144-7870-4C3C-A6E7-7C51A15F5275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
-  <si>
-    <t>Gold standard</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Cluster ID</t>
   </si>
@@ -55,9 +52,6 @@
     <t>the children make up their mind and their opinion when they watch ads and tv</t>
   </si>
   <si>
-    <t>The children can learn a lot in their future from watching tv and ads</t>
-  </si>
-  <si>
     <t>Ads on the TV can be useful for children because they prepare them for the schools</t>
   </si>
   <si>
@@ -110,6 +104,102 @@
   </si>
   <si>
     <t>Ads on TV should be replaced by educative content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ads should also be directed toward the parents since they are potential customers. </t>
+  </si>
+  <si>
+    <t>The children can learn a lot in their future from watching tv and advertisments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parents should not allow their children to watch TV. To avoid problems in the future. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children are the future who structure the future of our society. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children should decide themselves how they want to look in the future. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GoldStandard</t>
+  </si>
+  <si>
+    <t>It's hard to avoid T.V Ads, since they are every where</t>
+  </si>
+  <si>
+    <t>Recycling the products presented on T.V harms the enviornment</t>
+  </si>
+  <si>
+    <t>Ads are required for the stability of the economy</t>
+  </si>
+  <si>
+    <t>sell products, companies benefitt</t>
+  </si>
+  <si>
+    <t>key words</t>
+  </si>
+  <si>
+    <t>force parents, convince parents, children will be sad</t>
+  </si>
+  <si>
+    <t>do activities, go outside, play outside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influence children </t>
+  </si>
+  <si>
+    <t>Mapped Argument</t>
+  </si>
+  <si>
+    <t>Children could spend their time in other things, that enrich their skills</t>
+  </si>
+  <si>
+    <t>Annoying if children are going to question everything because what they saw doesn't fit to what they learned</t>
+  </si>
+  <si>
+    <t>Children get jealous of other kids, because they have something new from the advertisement that they do not have.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children don't perceive advertised products, that might be dangerous or harmful but are not stated as this.   - &gt; It is not good for children to get influenced in this age. </t>
+  </si>
+  <si>
+    <t>Annoying, especially for parents, of kids will never stop talking about wanting what they saw on the TV.  -&gt; Children might get unhappy or get bullied by other children because their parents can not afford what they want</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children may adopt undesired behavior -&gt;  unhealthy to watch tv in general even advertisements because the lack of moving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early confrontation with advertisements leads to better resistance at higher age. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funny and entertaining to watch, especially for children. </t>
+  </si>
+  <si>
+    <t>It does not really matter because young children aged two to five normally do not watch TV that often or shouldn't be allowed to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children learn things that they don't need -&gt; Ads can be used to influence children so that their behavior will have a positive effect on society, nature, and themselves. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get to know inventions for children/ gain information.  -&gt; Children learn colors and other things? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">advertised products may be useless and quickly loosing children interest, which leads to unnecessary garbage -&gt; Showing this Ad is a luractive income and required to produce entertaining tv shows. </t>
+  </si>
+  <si>
+    <t>toy-industry needs the advertising toward young children to sell their products and get money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children want to be treated as grown-ups so they like to watch ads because it is a thing that is also on channels for older people and so they feel more accepted. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easier to buy for the parents because they do not have to take the children to the store. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advertising toward young children is desired in contrast to advertising that has even more negative impact on children development, e.g alcohol advertising. </t>
   </si>
 </sst>
 </file>
@@ -132,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +253,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -176,12 +272,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,241 +559,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="39.109375" customWidth="1"/>
+    <col min="7" max="7" width="52.109375" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="43.88671875" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" customWidth="1"/>
     <col min="12" max="12" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2"/>
       <c r="H1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1">
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1">
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="R9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1">
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1">
         <v>9</v>
       </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
       <c r="J11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="1">
         <v>10</v>
       </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
       <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="R12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
       </c>
       <c r="H13" s="1">
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1">
         <v>12</v>
       </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
       <c r="J14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="R14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1">
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="R15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1">
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1">
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="R17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1">
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="H19" s="1">
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1">
         <v>18</v>
       </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
       <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1">
         <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="R25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R31" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
